--- a/main.xlsx
+++ b/main.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\tbbs\Documents\Gramme\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\tbbs\Documents\WE Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Gite</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>"=2"</t>
+  </si>
+  <si>
+    <t>p489</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <dimension ref="B4:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,12 +865,12 @@
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I3">
         <v>1</v>
       </c>
@@ -881,7 +884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -901,7 +904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -909,7 +912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -917,7 +920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -928,7 +931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -936,7 +939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -950,7 +953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -963,8 +966,11 @@
       <c r="N10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I11">
         <v>5</v>
       </c>
@@ -978,7 +984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>37</v>
       </c>
@@ -986,12 +992,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -999,12 +1005,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1031,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
